--- a/res/klasszres_time_thai_fiftyfifty.xlsx
+++ b/res/klasszres_time_thai_fiftyfifty.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51.72413793103448</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="D2" t="n">
-        <v>92.85714285714286</v>
+        <v>83.03571428571429</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51.61290322580645</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="D3" t="n">
-        <v>75.40983606557377</v>
+        <v>69.67213114754098</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65.51724137931035</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="D4" t="n">
-        <v>66.07142857142857</v>
+        <v>67.85714285714286</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70.96774193548387</v>
+        <v>45.16129032258064</v>
       </c>
       <c r="D5" t="n">
-        <v>67.21311475409836</v>
+        <v>63.9344262295082</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58.62068965517241</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>83.03571428571429</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>64.51612903225806</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="D7" t="n">
-        <v>79.50819672131148</v>
+        <v>71.31147540983606</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58.62068965517241</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="D8" t="n">
-        <v>91.07142857142857</v>
+        <v>79.46428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>74.19354838709677</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="D9" t="n">
-        <v>82.78688524590164</v>
+        <v>68.85245901639344</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>51.72413793103448</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>51.78571428571429</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>51.61290322580645</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="D11" t="n">
-        <v>52.45901639344262</v>
+        <v>62.29508196721311</v>
       </c>
     </row>
     <row r="12">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>62.06896551724138</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="D12" t="n">
         <v>100</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>67.74193548387096</v>
+        <v>45.16129032258064</v>
       </c>
       <c r="D13" t="n">
-        <v>94.26229508196722</v>
+        <v>88.52459016393442</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>62.06896551724138</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="D14" t="n">
-        <v>99.10714285714286</v>
+        <v>94.64285714285714</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74.19354838709677</v>
+        <v>45.16129032258064</v>
       </c>
       <c r="D15" t="n">
-        <v>84.42622950819673</v>
+        <v>72.1311475409836</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>51.72413793103448</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>51.78571428571429</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         <v>48.38709677419355</v>
       </c>
       <c r="D17" t="n">
-        <v>50.81967213114754</v>
+        <v>90.98360655737704</v>
       </c>
     </row>
     <row r="18">
@@ -719,7 +719,7 @@
         <v>0.4827586206896552</v>
       </c>
       <c r="D18" t="n">
-        <v>93.75</v>
+        <v>91.07142857142857</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D19" t="n">
-        <v>92.85714285714286</v>
+        <v>91.07142857142857</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D20" t="n">
-        <v>88.39285714285714</v>
+        <v>91.07142857142857</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D21" t="n">
-        <v>76.22950819672131</v>
+        <v>68.0327868852459</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D22" t="n">
-        <v>76.22950819672131</v>
+        <v>68.0327868852459</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D23" t="n">
-        <v>76.22950819672131</v>
+        <v>68.0327868852459</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="D24" t="n">
-        <v>83.92857142857143</v>
+        <v>82.14285714285714</v>
       </c>
     </row>
     <row r="25">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D25" t="n">
         <v>83.92857142857143</v>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D26" t="n">
-        <v>83.92857142857143</v>
+        <v>73.21428571428571</v>
       </c>
     </row>
     <row r="27">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="D27" t="n">
-        <v>79.50819672131148</v>
+        <v>65.57377049180327</v>
       </c>
     </row>
     <row r="28">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="D28" t="n">
-        <v>79.50819672131148</v>
+        <v>65.57377049180327</v>
       </c>
     </row>
     <row r="29">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D29" t="n">
-        <v>70.49180327868852</v>
+        <v>67.21311475409836</v>
       </c>
     </row>
     <row r="30">
@@ -908,10 +908,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D30" t="n">
-        <v>93.75</v>
+        <v>84.82142857142857</v>
       </c>
     </row>
     <row r="31">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D31" t="n">
-        <v>93.75</v>
+        <v>84.82142857142857</v>
       </c>
     </row>
     <row r="32">
@@ -940,10 +940,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D32" t="n">
-        <v>93.75</v>
+        <v>84.82142857142857</v>
       </c>
     </row>
     <row r="33">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D33" t="n">
-        <v>80.32786885245902</v>
+        <v>65.57377049180327</v>
       </c>
     </row>
     <row r="34">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D34" t="n">
-        <v>80.32786885245902</v>
+        <v>65.57377049180327</v>
       </c>
     </row>
     <row r="35">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D35" t="n">
-        <v>80.32786885245902</v>
+        <v>65.57377049180327</v>
       </c>
     </row>
     <row r="36">
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D36" t="n">
-        <v>89.28571428571429</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="37">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D37" t="n">
-        <v>89.28571428571429</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="38">
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D38" t="n">
-        <v>89.28571428571429</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="39">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="D39" t="n">
-        <v>80.32786885245902</v>
+        <v>74.59016393442623</v>
       </c>
     </row>
     <row r="40">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="D40" t="n">
-        <v>80.32786885245902</v>
+        <v>74.59016393442623</v>
       </c>
     </row>
     <row r="41">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="D41" t="n">
-        <v>81.9672131147541</v>
+        <v>74.59016393442623</v>
       </c>
     </row>
     <row r="42">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="D45" t="n">
-        <v>54.09836065573771</v>
+        <v>58.19672131147541</v>
       </c>
     </row>
     <row r="46">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="D46" t="n">
-        <v>54.09836065573771</v>
+        <v>58.19672131147541</v>
       </c>
     </row>
     <row r="47">
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="D47" t="n">
-        <v>54.09836065573771</v>
+        <v>58.19672131147541</v>
       </c>
     </row>
     <row r="48">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D48" t="n">
         <v>100</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D49" t="n">
         <v>100</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D50" t="n">
         <v>100</v>
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
+        <v>90.98360655737704</v>
       </c>
     </row>
     <row r="52">
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D52" t="n">
-        <v>99.18032786885246</v>
+        <v>91.80327868852459</v>
       </c>
     </row>
     <row r="53">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D53" t="n">
-        <v>99.18032786885246</v>
+        <v>91.80327868852459</v>
       </c>
     </row>
     <row r="54">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D54" t="n">
         <v>100</v>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D55" t="n">
         <v>100</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D56" t="n">
         <v>100</v>
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D57" t="n">
-        <v>96.72131147540983</v>
+        <v>91.80327868852459</v>
       </c>
     </row>
     <row r="58">
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D58" t="n">
-        <v>96.72131147540983</v>
+        <v>91.80327868852459</v>
       </c>
     </row>
     <row r="59">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="D59" t="n">
-        <v>86.88524590163934</v>
+        <v>77.8688524590164</v>
       </c>
     </row>
     <row r="60">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D60" t="n">
         <v>54.46428571428571</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D61" t="n">
         <v>54.46428571428571</v>
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D62" t="n">
         <v>54.46428571428571</v>
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="D63" t="n">
-        <v>54.91803278688525</v>
+        <v>90.98360655737704</v>
       </c>
     </row>
     <row r="64">
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="D64" t="n">
-        <v>54.91803278688525</v>
+        <v>90.98360655737704</v>
       </c>
     </row>
     <row r="65">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D65" t="n">
-        <v>54.91803278688525</v>
+        <v>90.1639344262295</v>
       </c>
     </row>
     <row r="66">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D66" t="n">
         <v>100</v>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D67" t="n">
         <v>100</v>
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D68" t="n">
         <v>100</v>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="D69" t="n">
-        <v>100</v>
+        <v>90.98360655737704</v>
       </c>
     </row>
     <row r="70">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D70" t="n">
-        <v>99.18032786885246</v>
+        <v>91.80327868852459</v>
       </c>
     </row>
     <row r="71">
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D71" t="n">
-        <v>99.18032786885246</v>
+        <v>91.80327868852459</v>
       </c>
     </row>
     <row r="72">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D72" t="n">
         <v>100</v>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D73" t="n">
         <v>100</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D74" t="n">
         <v>100</v>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D75" t="n">
-        <v>96.72131147540983</v>
+        <v>91.80327868852459</v>
       </c>
     </row>
     <row r="76">
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D76" t="n">
-        <v>96.72131147540983</v>
+        <v>91.80327868852459</v>
       </c>
     </row>
     <row r="77">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="D77" t="n">
-        <v>86.88524590163934</v>
+        <v>77.8688524590164</v>
       </c>
     </row>
     <row r="78">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D78" t="n">
         <v>54.46428571428571</v>
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D79" t="n">
         <v>54.46428571428571</v>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D80" t="n">
         <v>54.46428571428571</v>
@@ -1724,10 +1724,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="D81" t="n">
-        <v>54.91803278688525</v>
+        <v>90.98360655737704</v>
       </c>
     </row>
     <row r="82">
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="D82" t="n">
-        <v>54.91803278688525</v>
+        <v>90.98360655737704</v>
       </c>
     </row>
     <row r="83">
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D83" t="n">
-        <v>54.91803278688525</v>
+        <v>90.1639344262295</v>
       </c>
     </row>
     <row r="84">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9375</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="97">
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D97" t="n">
-        <v>0.875</v>
+        <v>0.7678571428571429</v>
       </c>
     </row>
     <row r="98">
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.5267857142857143</v>
       </c>
     </row>
     <row r="99">
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8442622950819673</v>
+        <v>0.7295081967213115</v>
       </c>
     </row>
     <row r="100">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7786885245901639</v>
+        <v>0.7049180327868853</v>
       </c>
     </row>
     <row r="101">
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.7049180327868853</v>
       </c>
     </row>
     <row r="102">
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0.9017857142857143</v>
       </c>
     </row>
     <row r="115">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D115" t="n">
-        <v>0.819672131147541</v>
+        <v>0.7049180327868853</v>
       </c>
     </row>
     <row r="116">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7946428571428571</v>
+        <v>0.7589285714285714</v>
       </c>
     </row>
     <row r="117">
@@ -2300,10 +2300,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7622950819672131</v>
+        <v>0.6147540983606558</v>
       </c>
     </row>
     <row r="118">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0.9910714285714286</v>
       </c>
     </row>
     <row r="119">
@@ -2335,7 +2335,7 @@
         <v>0.5483870967741935</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8032786885245902</v>
+        <v>0.7950819672131147</v>
       </c>
     </row>
     <row r="120">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0.8392857142857143</v>
       </c>
     </row>
     <row r="121">
@@ -2364,10 +2364,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8114754098360656</v>
+        <v>0.7377049180327869</v>
       </c>
     </row>
     <row r="122">
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>0.6129032258064516</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0.9344262295081968</v>
       </c>
     </row>
     <row r="124">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2428,10 +2428,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9180327868852459</v>
+        <v>0.8032786885245902</v>
       </c>
     </row>
     <row r="126">
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2463,7 +2463,7 @@
         <v>0.6129032258064516</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.9344262295081968</v>
       </c>
     </row>
     <row r="128">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9180327868852459</v>
+        <v>0.8032786885245902</v>
       </c>
     </row>
     <row r="130">
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0.9910714285714286</v>
       </c>
     </row>
     <row r="147">
@@ -2780,10 +2780,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9836065573770492</v>
+        <v>0.9672131147540983</v>
       </c>
     </row>
     <row r="148">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -2812,10 +2812,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9672131147540983</v>
+        <v>0.9426229508196722</v>
       </c>
     </row>
     <row r="150">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9918032786885246</v>
+        <v>0.9754098360655737</v>
       </c>
     </row>
     <row r="152">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9754098360655737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5573770491803278</v>
+        <v>0.8688524590163934</v>
       </c>
     </row>
     <row r="156">
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D157" t="n">
         <v>0.9836065573770492</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D159" t="n">
         <v>0.9836065573770492</v>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9918032786885246</v>
+        <v>0.9836065573770492</v>
       </c>
     </row>
     <row r="162">
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>51.72413793103448</v>
+        <v>68.96551724137932</v>
       </c>
       <c r="D162" t="n">
-        <v>62.5</v>
+        <v>67.85714285714286</v>
       </c>
     </row>
     <row r="163">
@@ -3039,7 +3039,7 @@
         <v>45.16129032258064</v>
       </c>
       <c r="D163" t="n">
-        <v>63.11475409836066</v>
+        <v>65.57377049180327</v>
       </c>
     </row>
     <row r="164">
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>41.37931034482759</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="D164" t="n">
-        <v>59.82142857142857</v>
+        <v>66.07142857142857</v>
       </c>
     </row>
     <row r="165">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>54.83870967741935</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="D165" t="n">
-        <v>66.39344262295081</v>
+        <v>57.37704918032787</v>
       </c>
     </row>
     <row r="166">
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>34.48275862068966</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="D166" t="n">
-        <v>89.28571428571429</v>
+        <v>83.92857142857143</v>
       </c>
     </row>
     <row r="167">
@@ -3100,10 +3100,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>61.29032258064516</v>
+        <v>51.61290322580645</v>
       </c>
       <c r="D167" t="n">
-        <v>77.8688524590164</v>
+        <v>64.75409836065575</v>
       </c>
     </row>
     <row r="168">
@@ -3119,7 +3119,7 @@
         <v>44.82758620689656</v>
       </c>
       <c r="D168" t="n">
-        <v>88.39285714285714</v>
+        <v>80.35714285714286</v>
       </c>
     </row>
     <row r="169">
@@ -3132,10 +3132,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>54.83870967741935</v>
+        <v>61.29032258064516</v>
       </c>
       <c r="D169" t="n">
-        <v>72.95081967213115</v>
+        <v>68.85245901639344</v>
       </c>
     </row>
     <row r="170">
@@ -3148,10 +3148,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>41.37931034482759</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="D170" t="n">
-        <v>52.67857142857143</v>
+        <v>51.78571428571429</v>
       </c>
     </row>
     <row r="171">
@@ -3164,10 +3164,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>48.38709677419355</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="D171" t="n">
-        <v>50.81967213114754</v>
+        <v>53.27868852459017</v>
       </c>
     </row>
     <row r="172">
@@ -3180,10 +3180,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>44.82758620689656</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="D172" t="n">
-        <v>82.14285714285714</v>
+        <v>78.57142857142857</v>
       </c>
     </row>
     <row r="173">
@@ -3196,10 +3196,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>61.29032258064516</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="D173" t="n">
-        <v>70.49180327868852</v>
+        <v>62.29508196721311</v>
       </c>
     </row>
     <row r="174">
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>44.82758620689656</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="D174" t="n">
-        <v>83.03571428571429</v>
+        <v>78.57142857142857</v>
       </c>
     </row>
     <row r="175">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>61.29032258064516</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="D175" t="n">
-        <v>70.49180327868852</v>
+        <v>62.29508196721311</v>
       </c>
     </row>
     <row r="176">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>37.93103448275862</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="D176" t="n">
         <v>53.57142857142857</v>
@@ -3263,7 +3263,7 @@
         <v>48.38709677419355</v>
       </c>
       <c r="D177" t="n">
-        <v>50</v>
+        <v>62.29508196721311</v>
       </c>
     </row>
     <row r="178">
@@ -3276,10 +3276,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>48.27586206896552</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9196428571428571</v>
+        <v>0.8303571428571429</v>
       </c>
     </row>
     <row r="179">
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>67.74193548387096</v>
+        <v>51.61290322580645</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8770491803278688</v>
+        <v>0.8278688524590164</v>
       </c>
     </row>
     <row r="180">
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>62.06896551724138</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="D180" t="n">
-        <v>0.8660714285714286</v>
+        <v>0.7946428571428571</v>
       </c>
     </row>
     <row r="181">
@@ -3327,7 +3327,7 @@
         <v>64.51612903225806</v>
       </c>
       <c r="D181" t="n">
-        <v>0.8852459016393442</v>
+        <v>0.7950819672131147</v>
       </c>
     </row>
     <row r="182">
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>48.27586206896552</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9107142857142857</v>
+        <v>0.8392857142857143</v>
       </c>
     </row>
     <row r="183">
@@ -3372,10 +3372,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>51.72413793103448</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9375</v>
+        <v>0.8392857142857143</v>
       </c>
     </row>
     <row r="185">
@@ -3388,10 +3388,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>58.06451612903226</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="D185" t="n">
-        <v>0.8770491803278688</v>
+        <v>0.8278688524590164</v>
       </c>
     </row>
     <row r="186">
@@ -3404,10 +3404,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>51.72413793103448</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="187">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>48.38709677419355</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5327868852459017</v>
+        <v>0.7295081967213115</v>
       </c>
     </row>
     <row r="188">
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>65.51724137931035</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9375</v>
+        <v>0.9107142857142857</v>
       </c>
     </row>
     <row r="189">
@@ -3452,10 +3452,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>74.19354838709677</v>
+        <v>51.61290322580645</v>
       </c>
       <c r="D189" t="n">
-        <v>0.8688524590163934</v>
+        <v>0.8770491803278688</v>
       </c>
     </row>
     <row r="190">
@@ -3468,10 +3468,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>65.51724137931035</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9375</v>
+        <v>0.9107142857142857</v>
       </c>
     </row>
     <row r="191">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>74.19354838709677</v>
+        <v>51.61290322580645</v>
       </c>
       <c r="D191" t="n">
-        <v>0.8688524590163934</v>
+        <v>0.8770491803278688</v>
       </c>
     </row>
     <row r="192">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>65.51724137931035</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9375</v>
+        <v>0.9107142857142857</v>
       </c>
     </row>
     <row r="193">
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>74.19354838709677</v>
+        <v>51.61290322580645</v>
       </c>
       <c r="D193" t="n">
-        <v>0.8688524590163934</v>
+        <v>0.8770491803278688</v>
       </c>
     </row>
     <row r="194">
@@ -3532,10 +3532,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>41.37931034482759</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="D194" t="n">
-        <v>0.875</v>
+        <v>0.8303571428571429</v>
       </c>
     </row>
     <row r="195">
@@ -3551,7 +3551,7 @@
         <v>54.83870967741935</v>
       </c>
       <c r="D195" t="n">
-        <v>0.8852459016393442</v>
+        <v>0.8360655737704918</v>
       </c>
     </row>
     <row r="196">
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>44.82758620689656</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="D196" t="n">
-        <v>0.75</v>
+        <v>0.7589285714285714</v>
       </c>
     </row>
     <row r="197">
@@ -3583,7 +3583,7 @@
         <v>61.29032258064516</v>
       </c>
       <c r="D197" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="198">
@@ -3596,10 +3596,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>44.82758620689656</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9553571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="199">
@@ -3615,7 +3615,7 @@
         <v>51.61290322580645</v>
       </c>
       <c r="D199" t="n">
-        <v>0.8688524590163934</v>
+        <v>0.7295081967213115</v>
       </c>
     </row>
     <row r="200">
@@ -3628,10 +3628,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>51.72413793103448</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9375</v>
+        <v>0.7946428571428571</v>
       </c>
     </row>
     <row r="201">
@@ -3644,10 +3644,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>74.19354838709677</v>
+        <v>45.16129032258064</v>
       </c>
       <c r="D201" t="n">
-        <v>0.8278688524590164</v>
+        <v>0.7704918032786885</v>
       </c>
     </row>
     <row r="202">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>51.72413793103448</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="D202" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="203">
@@ -3676,10 +3676,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>48.38709677419355</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5327868852459017</v>
+        <v>0.7295081967213115</v>
       </c>
     </row>
     <row r="204">
@@ -3692,10 +3692,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>58.62068965517241</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9196428571428571</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="205">
@@ -3708,10 +3708,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>67.74193548387096</v>
+        <v>58.06451612903226</v>
       </c>
       <c r="D205" t="n">
-        <v>0.8360655737704918</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="206">
@@ -3724,10 +3724,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>58.62068965517241</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9196428571428571</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="207">
@@ -3740,10 +3740,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>67.74193548387096</v>
+        <v>58.06451612903226</v>
       </c>
       <c r="D207" t="n">
-        <v>0.8360655737704918</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="208">
@@ -3756,10 +3756,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>55.17241379310344</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9107142857142857</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="209">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>67.74193548387096</v>
+        <v>58.06451612903226</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8360655737704918</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
   </sheetData>
